--- a/Excel Mastery/ESD.xlsx
+++ b/Excel Mastery/ESD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ultimate Programming\Data Analytics\Excel Mastery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DFB86-16A5-44C2-AD60-F4A41B99BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF43A5E-1336-4D53-B85D-8722BF1508FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{48D7A289-7038-4147-BCC7-50B68A760B76}"/>
   </bookViews>
@@ -6264,7 +6264,7 @@
   <autoFilter ref="D6:E10" xr:uid="{7B461191-8E71-47F8-80FF-8A95AE2D107E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{36038288-0368-47CD-9CA4-E39D4FEFEE9A}" name="EEID : " dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8BB21E8D-9886-42C2-92A5-F8D1DE1C35FD}" name="E00089"/>
+    <tableColumn id="2" xr3:uid="{8BB21E8D-9886-42C2-92A5-F8D1DE1C35FD}" name="E00099"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6275,7 +6275,7 @@
   <autoFilter ref="H5:I7" xr:uid="{11034307-0808-406D-97D4-3BCF9063ED2A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EDA7D965-1093-498B-973C-6136079B4FAC}" name="EEID : "/>
-    <tableColumn id="2" xr3:uid="{8240F4E3-CFB3-40EF-8791-C85E21C1E1EC}" name="E00022">
+    <tableColumn id="2" xr3:uid="{8240F4E3-CFB3-40EF-8791-C85E21C1E1EC}" name="E00035">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(I4,Sheet1!A:A,(_xlfn.XLOOKUP(Sheet2!I5,TBL_Employees[[#Headers],[Full Name]:[Ethnicity]],Sheet1!B:G)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6582,7 +6582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4B560-0E2E-4E90-A5A5-DCC845A508E1}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -50661,8 +50661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EFF31-8788-4825-85FE-20189D28A5E1}">
   <dimension ref="D4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50685,7 +50685,7 @@
         <v>1983</v>
       </c>
       <c r="I5" t="s">
-        <v>1205</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
@@ -50693,13 +50693,13 @@
         <v>1983</v>
       </c>
       <c r="E6" t="s">
-        <v>1735</v>
+        <v>1113</v>
       </c>
       <c r="H6" t="s">
         <v>1989</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
@@ -50708,14 +50708,14 @@
       </c>
       <c r="E7" t="str">
         <f>_xlfn.XLOOKUP(E6,Sheet1!A:A,Sheet1!B:B)</f>
-        <v>Sofia Yoon</v>
+        <v>Brooklyn Salazar</v>
       </c>
       <c r="H7" t="s">
         <v>1990</v>
       </c>
       <c r="I7" t="str" cm="1">
         <f t="array" ref="I7">_xlfn.XLOOKUP(I5,Sheet1!A:A,(_xlfn.XLOOKUP(Sheet2!I6,TBL_Employees[[#Headers],[Full Name]:[Ethnicity]],Sheet1!B:G)))</f>
-        <v>Sales</v>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
@@ -50724,7 +50724,7 @@
       </c>
       <c r="E8" t="str">
         <f>_xlfn.XLOOKUP(E6,Sheet1!A:A,Sheet1!C:C)</f>
-        <v>Sr. Manger</v>
+        <v>IT Systems Architect</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
@@ -50733,7 +50733,7 @@
       </c>
       <c r="E9" t="str">
         <f>_xlfn.XLOOKUP(E6,Sheet1!A:A,Sheet1!D:D)</f>
-        <v>Human Resources</v>
+        <v>IT</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
@@ -50741,8 +50741,8 @@
         <v>1987</v>
       </c>
       <c r="E10">
-        <f>_xlfn.XLOOKUP(Table2[[#Headers],[E00089]],Sheet1!A:A,Sheet1!J:J)</f>
-        <v>131353</v>
+        <f>_xlfn.XLOOKUP(Table2[[#Headers],[E00099]],Sheet1!A:A,Sheet1!J:J)</f>
+        <v>82462</v>
       </c>
     </row>
   </sheetData>
